--- a/HEB-profiles.xlsx
+++ b/HEB-profiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janib\Desktop\SemesterUoLJ\CP\PyCharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F345B5-2247-4AB8-B0F6-4457B64A81C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18C041F-5800-4EAD-92AD-454648A744AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>HEA [-]</t>
-  </si>
   <si>
     <t>h [mm]</t>
   </si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>M_Ed</t>
+  </si>
+  <si>
+    <t>HEB [-]</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,67 +462,67 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="S2">
-        <f>2*Q2</f>
+        <f t="shared" ref="S2:S7" si="0">2*Q2</f>
         <v>104.2</v>
       </c>
       <c r="T2">
@@ -653,19 +653,19 @@
         <v>10.5</v>
       </c>
       <c r="S3">
-        <f>2*Q3</f>
+        <f t="shared" si="0"/>
         <v>165.2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T25" si="0">(S3*23.5)/100</f>
+        <f t="shared" ref="T3:T25" si="1">(S3*23.5)/100</f>
         <v>38.821999999999996</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U25" si="1">W3/T3</f>
+        <f t="shared" ref="U3:U25" si="2">W3/T3</f>
         <v>12.00061820617176</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W25" si="2">388.24*1.2</f>
+        <f t="shared" ref="W3:W25" si="3">388.24*1.2</f>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -725,19 +725,19 @@
         <v>12.3</v>
       </c>
       <c r="S4">
-        <f>2*Q4</f>
+        <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.81</v>
       </c>
       <c r="U4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0589517384535547</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -797,19 +797,19 @@
         <v>14.1</v>
       </c>
       <c r="S5">
-        <f>2*Q5</f>
+        <f t="shared" si="0"/>
         <v>354</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.19</v>
       </c>
       <c r="U5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6002884962134871</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -869,19 +869,19 @@
         <v>15.9</v>
       </c>
       <c r="S6">
-        <f>2*Q6</f>
+        <f t="shared" si="0"/>
         <v>482</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113.27</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1130749536505693</v>
       </c>
       <c r="W6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -941,19 +941,19 @@
         <v>17.7</v>
       </c>
       <c r="S7">
-        <f>2*Q7</f>
+        <f t="shared" si="0"/>
         <v>642</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150.87</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0880095446410816</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1013,19 +1013,19 @@
         <v>19.600000000000001</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S25" si="3">2*Q8</f>
+        <f t="shared" ref="S8:S25" si="4">2*Q8</f>
         <v>828</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>194.58</v>
       </c>
       <c r="U8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3943262411347517</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1085,19 +1085,19 @@
         <v>21.4</v>
       </c>
       <c r="S9">
+        <f t="shared" si="4"/>
+        <v>1054</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>247.69</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>1.8809318099236949</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="3"/>
-        <v>1054</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>247.69</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="1"/>
-        <v>1.8809318099236949</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1157,19 +1157,19 @@
         <v>23.3</v>
       </c>
       <c r="S10">
+        <f t="shared" si="4"/>
+        <v>1282</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>301.27</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>1.5464135161151127</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="3"/>
-        <v>1282</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>301.27</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="1"/>
-        <v>1.5464135161151127</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1229,19 +1229,19 @@
         <v>25.1</v>
       </c>
       <c r="S11">
+        <f t="shared" si="4"/>
+        <v>1534</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>360.49</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>1.2923742683569586</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="3"/>
-        <v>1534</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>360.49</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="1"/>
-        <v>1.2923742683569586</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1301,19 +1301,19 @@
         <v>26.9</v>
       </c>
       <c r="S12">
+        <f t="shared" si="4"/>
+        <v>1868</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>438.98</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>1.0612966422160461</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="3"/>
-        <v>1868</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>438.98</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="1"/>
-        <v>1.0612966422160461</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1373,19 +1373,19 @@
         <v>28.7</v>
       </c>
       <c r="S13">
+        <f t="shared" si="4"/>
+        <v>2140</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>502.9</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0.92640286339232447</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="3"/>
-        <v>2140</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="0"/>
-        <v>502.9</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="1"/>
-        <v>0.92640286339232447</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1445,19 +1445,19 @@
         <v>30.4</v>
       </c>
       <c r="S14">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0.82604255319148934</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="0"/>
-        <v>564</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="1"/>
-        <v>0.82604255319148934</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1517,19 +1517,19 @@
         <v>32.200000000000003</v>
       </c>
       <c r="S15">
+        <f t="shared" si="4"/>
+        <v>2680</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>629.79999999999995</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0.73973959987297555</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="3"/>
-        <v>2680</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>629.79999999999995</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="1"/>
-        <v>0.73973959987297555</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1589,19 +1589,19 @@
         <v>35.700000000000003</v>
       </c>
       <c r="S16">
+        <f t="shared" si="4"/>
+        <v>3240</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>761.4</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0.6118833727344366</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="3"/>
-        <v>3240</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="0"/>
-        <v>761.4</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="1"/>
-        <v>0.6118833727344366</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1661,19 +1661,19 @@
         <v>40.1</v>
       </c>
       <c r="S17">
+        <f t="shared" si="4"/>
+        <v>3980</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>935.3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0.49811611247727999</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="3"/>
-        <v>3980</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="0"/>
-        <v>935.3</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="1"/>
-        <v>0.49811611247727999</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1733,19 +1733,19 @@
         <v>44.5</v>
       </c>
       <c r="S18">
+        <f t="shared" si="4"/>
+        <v>4820</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>1132.7</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0.4113074953650569</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="3"/>
-        <v>4820</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="0"/>
-        <v>1132.7</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="1"/>
-        <v>0.4113074953650569</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1805,19 +1805,19 @@
         <v>48.9</v>
       </c>
       <c r="S19">
+        <f t="shared" si="4"/>
+        <v>5600</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>1316</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0.35401823708206687</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="3"/>
-        <v>5600</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="0"/>
-        <v>1316</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="1"/>
-        <v>0.35401823708206687</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1877,19 +1877,19 @@
         <v>53.2</v>
       </c>
       <c r="S20">
+        <f t="shared" si="4"/>
+        <v>6420</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>1508.7</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>0.30880095446410816</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="3"/>
-        <v>6420</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="0"/>
-        <v>1508.7</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="1"/>
-        <v>0.30880095446410816</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -1949,19 +1949,19 @@
         <v>57.5</v>
       </c>
       <c r="S21">
+        <f t="shared" si="4"/>
+        <v>7320</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>1720.2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0.27083362399720962</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="3"/>
-        <v>7320</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="0"/>
-        <v>1720.2</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="1"/>
-        <v>0.27083362399720962</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -2021,19 +2021,19 @@
         <v>61.7</v>
       </c>
       <c r="S22">
+        <f t="shared" si="4"/>
+        <v>8320</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>1955.2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>0.23828150572831422</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="3"/>
-        <v>8320</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="0"/>
-        <v>1955.2</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="1"/>
-        <v>0.23828150572831422</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -2093,19 +2093,19 @@
         <v>70.2</v>
       </c>
       <c r="S23">
+        <f t="shared" si="4"/>
+        <v>10220</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>2401.6999999999998</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>0.19398259566140652</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="3"/>
-        <v>10220</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="0"/>
-        <v>2401.6999999999998</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="1"/>
-        <v>0.19398259566140652</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -2165,19 +2165,19 @@
         <v>78.5</v>
       </c>
       <c r="S24">
+        <f t="shared" si="4"/>
+        <v>12580</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>2956.3</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>0.15759158407468793</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="3"/>
-        <v>12580</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="0"/>
-        <v>2956.3</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="1"/>
-        <v>0.15759158407468793</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>
@@ -2237,19 +2237,19 @@
         <v>86.8</v>
       </c>
       <c r="S25">
+        <f t="shared" si="4"/>
+        <v>14860</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>3492.1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>0.13341198705649895</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="3"/>
-        <v>14860</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="0"/>
-        <v>3492.1</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="1"/>
-        <v>0.13341198705649895</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="2"/>
         <v>465.88799999999998</v>
       </c>
     </row>

--- a/HEB-profiles.xlsx
+++ b/HEB-profiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janib\Desktop\SemesterUoLJ\CP\PyCharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18C041F-5800-4EAD-92AD-454648A744AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC425EC-6A4A-450C-A7E9-A3A77691B784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>h [mm]</t>
   </si>
@@ -84,18 +84,6 @@
   </si>
   <si>
     <t>s_x [cm]</t>
-  </si>
-  <si>
-    <t>W_pl [cm3]</t>
-  </si>
-  <si>
-    <t>M_cRD [kNm]</t>
-  </si>
-  <si>
-    <t>Eta [-]</t>
-  </si>
-  <si>
-    <t>M_Ed</t>
   </si>
   <si>
     <t>HEB [-]</t>
@@ -450,7 +438,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +450,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -512,18 +500,10 @@
       <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -580,22 +560,6 @@
       <c r="R2" s="4">
         <v>8.6300000000000008</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S7" si="0">2*Q2</f>
-        <v>104.2</v>
-      </c>
-      <c r="T2">
-        <f>(S2*23.5)/100</f>
-        <v>24.487000000000002</v>
-      </c>
-      <c r="U2">
-        <f>W2/T2</f>
-        <v>19.025932127251192</v>
-      </c>
-      <c r="W2">
-        <f>388.24*1.2</f>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -652,22 +616,6 @@
       <c r="R3" s="4">
         <v>10.5</v>
       </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>165.2</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T25" si="1">(S3*23.5)/100</f>
-        <v>38.821999999999996</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U25" si="2">W3/T3</f>
-        <v>12.00061820617176</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W25" si="3">388.24*1.2</f>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -724,22 +672,6 @@
       <c r="R4" s="4">
         <v>12.3</v>
       </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>57.81</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="2"/>
-        <v>8.0589517384535547</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -796,22 +728,6 @@
       <c r="R5" s="4">
         <v>14.1</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>354</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="1"/>
-        <v>83.19</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="2"/>
-        <v>5.6002884962134871</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -868,22 +784,6 @@
       <c r="R6" s="4">
         <v>15.9</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>482</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
-        <v>113.27</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="2"/>
-        <v>4.1130749536505693</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -940,22 +840,6 @@
       <c r="R7" s="4">
         <v>17.7</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>642</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>150.87</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
-        <v>3.0880095446410816</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1012,22 +896,6 @@
       <c r="R8" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="S8">
-        <f t="shared" ref="S8:S25" si="4">2*Q8</f>
-        <v>828</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>194.58</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
-        <v>2.3943262411347517</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1084,22 +952,6 @@
       <c r="R9" s="4">
         <v>21.4</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="4"/>
-        <v>1054</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
-        <v>247.69</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="2"/>
-        <v>1.8809318099236949</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1156,22 +1008,6 @@
       <c r="R10" s="4">
         <v>23.3</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="4"/>
-        <v>1282</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>301.27</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="2"/>
-        <v>1.5464135161151127</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1228,22 +1064,6 @@
       <c r="R11" s="4">
         <v>25.1</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="4"/>
-        <v>1534</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="1"/>
-        <v>360.49</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>1.2923742683569586</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1300,22 +1120,6 @@
       <c r="R12" s="4">
         <v>26.9</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="4"/>
-        <v>1868</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="1"/>
-        <v>438.98</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
-        <v>1.0612966422160461</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1372,22 +1176,6 @@
       <c r="R13" s="4">
         <v>28.7</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="4"/>
-        <v>2140</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="1"/>
-        <v>502.9</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="2"/>
-        <v>0.92640286339232447</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1444,22 +1232,6 @@
       <c r="R14" s="4">
         <v>30.4</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="1"/>
-        <v>564</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="2"/>
-        <v>0.82604255319148934</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1516,22 +1288,6 @@
       <c r="R15" s="4">
         <v>32.200000000000003</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
-        <v>2680</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="1"/>
-        <v>629.79999999999995</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="2"/>
-        <v>0.73973959987297555</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1588,24 +1344,8 @@
       <c r="R16" s="4">
         <v>35.700000000000003</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="4"/>
-        <v>3240</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="1"/>
-        <v>761.4</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="2"/>
-        <v>0.6118833727344366</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1660,24 +1400,8 @@
       <c r="R17" s="4">
         <v>40.1</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="4"/>
-        <v>3980</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="1"/>
-        <v>935.3</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="2"/>
-        <v>0.49811611247727999</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1732,24 +1456,8 @@
       <c r="R18" s="4">
         <v>44.5</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="4"/>
-        <v>4820</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="1"/>
-        <v>1132.7</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="2"/>
-        <v>0.4113074953650569</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1804,24 +1512,8 @@
       <c r="R19" s="4">
         <v>48.9</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="4"/>
-        <v>5600</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="1"/>
-        <v>1316</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="2"/>
-        <v>0.35401823708206687</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1876,24 +1568,8 @@
       <c r="R20" s="4">
         <v>53.2</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="4"/>
-        <v>6420</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="1"/>
-        <v>1508.7</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="2"/>
-        <v>0.30880095446410816</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1948,24 +1624,8 @@
       <c r="R21" s="4">
         <v>57.5</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="4"/>
-        <v>7320</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="1"/>
-        <v>1720.2</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="2"/>
-        <v>0.27083362399720962</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2020,24 +1680,8 @@
       <c r="R22" s="4">
         <v>61.7</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="4"/>
-        <v>8320</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="1"/>
-        <v>1955.2</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="2"/>
-        <v>0.23828150572831422</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2092,24 +1736,8 @@
       <c r="R23" s="4">
         <v>70.2</v>
       </c>
-      <c r="S23">
-        <f t="shared" si="4"/>
-        <v>10220</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="1"/>
-        <v>2401.6999999999998</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="2"/>
-        <v>0.19398259566140652</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2164,24 +1792,8 @@
       <c r="R24" s="4">
         <v>78.5</v>
       </c>
-      <c r="S24">
-        <f t="shared" si="4"/>
-        <v>12580</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="1"/>
-        <v>2956.3</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="2"/>
-        <v>0.15759158407468793</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2235,22 +1847,6 @@
       </c>
       <c r="R25" s="4">
         <v>86.8</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="4"/>
-        <v>14860</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="1"/>
-        <v>3492.1</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="2"/>
-        <v>0.13341198705649895</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
       </c>
     </row>
   </sheetData>
